--- a/data/trans_orig/P32C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC21FB3-DC57-4DEF-8476-3CF7F470734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB3492A-6516-4EF7-B80D-199C30D217AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DC75C8F5-1A89-4341-B4EA-28797EAB7A5A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{613EC9C8-0993-445E-B76D-C68BE3456AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="316">
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -356,631 +356,637 @@
     <t>5,97%</t>
   </si>
   <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
   </si>
   <si>
     <t>97,75%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2015 (Tasa respuesta: 44,97%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2015 (Tasa respuesta: 44,97%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
     <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F699B0B-B54D-4365-90A2-18201E3B321D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE06B9C-8B9A-4B78-BB43-6054B1F05071}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2455,7 +2461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FF58B4-154C-42A1-BB75-96A0C576C45F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02958950-113D-4513-ACE7-0D6AD32F946D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2925,7 +2931,7 @@
         <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,7 +2979,7 @@
         <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>141</v>
@@ -3044,13 +3050,13 @@
         <v>10325</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3065,7 +3071,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3074,13 +3080,13 @@
         <v>10325</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3101,13 @@
         <v>448366</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -3113,7 +3119,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -3125,13 +3131,13 @@
         <v>653313</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3205,13 @@
         <v>16489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3214,13 +3220,13 @@
         <v>2026</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3229,13 +3235,13 @@
         <v>18515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3256,13 @@
         <v>540739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>346</v>
@@ -3265,10 +3271,10 @@
         <v>368158</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -3280,7 +3286,7 @@
         <v>908898</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>168</v>
@@ -3357,10 +3363,10 @@
         <v>170</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3369,13 +3375,13 @@
         <v>3038</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3384,13 +3390,13 @@
         <v>43958</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3411,13 @@
         <v>1991315</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>953</v>
@@ -3420,13 +3426,13 @@
         <v>1037511</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>2824</v>
@@ -3435,13 +3441,13 @@
         <v>3028826</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,7 +3524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFB409F-6668-4EBB-86C1-D4DA6A3A2305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9C2E81-9251-4575-9062-B8CF219DECA0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3535,7 +3541,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3642,13 +3648,13 @@
         <v>933</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3663,7 +3669,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3672,13 +3678,13 @@
         <v>933</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,10 +3699,10 @@
         <v>84283</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3711,7 +3717,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3723,10 +3729,10 @@
         <v>119644</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3797,13 +3803,13 @@
         <v>7024</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3827,13 +3833,13 @@
         <v>7024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3854,13 @@
         <v>330473</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>153</v>
@@ -3878,13 +3884,13 @@
         <v>479033</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3958,13 @@
         <v>8775</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3973,7 +3979,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3982,13 +3988,13 @@
         <v>9879</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +4009,13 @@
         <v>557363</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>300</v>
@@ -4021,7 +4027,7 @@
         <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4110,10 +4116,10 @@
         <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4140,10 +4146,10 @@
         <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4164,13 @@
         <v>418404</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>216</v>
@@ -4176,7 +4182,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -4191,10 +4197,10 @@
         <v>34</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4268,13 @@
         <v>6949</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4277,13 +4283,13 @@
         <v>5106</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4292,13 +4298,13 @@
         <v>12055</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4319,13 @@
         <v>558749</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -4328,13 +4334,13 @@
         <v>397914</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>920</v>
@@ -4343,13 +4349,13 @@
         <v>956663</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4423,13 @@
         <v>31963</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>242</v>
+        <v>142</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4432,13 +4438,13 @@
         <v>6210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -4447,13 +4453,13 @@
         <v>38173</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4474,13 @@
         <v>1949273</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>1075</v>
@@ -4483,13 +4489,13 @@
         <v>1124004</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M20" s="7">
         <v>2918</v>
@@ -4498,13 +4504,13 @@
         <v>3073277</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,7 +4587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6844A4-D2A7-46CD-9FE5-5C157556C27A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000D81D8-2D11-4B7C-AA0D-DEDE06A83C78}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4598,7 +4604,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4711,7 +4717,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4726,7 +4732,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4735,13 +4741,13 @@
         <v>734</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,7 +4765,7 @@
         <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4774,7 +4780,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4786,10 +4792,10 @@
         <v>73270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4860,13 +4866,13 @@
         <v>1818</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4875,13 +4881,13 @@
         <v>1410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4890,13 +4896,13 @@
         <v>3228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4917,13 @@
         <v>287113</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>205</v>
@@ -4926,10 +4932,10 @@
         <v>139618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4941,13 +4947,13 @@
         <v>426731</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5021,13 @@
         <v>7776</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5030,13 +5036,13 @@
         <v>3651</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5045,13 +5051,13 @@
         <v>11427</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5072,13 @@
         <v>479373</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>285</v>
@@ -5081,13 +5087,13 @@
         <v>215670</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>719</v>
@@ -5096,13 +5102,13 @@
         <v>695043</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,13 +5176,13 @@
         <v>2305</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5191,7 +5197,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -5200,13 +5206,13 @@
         <v>5006</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,10 +5227,10 @@
         <v>331931</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -5325,13 +5331,13 @@
         <v>7343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5340,13 +5346,13 @@
         <v>2476</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5355,13 +5361,13 @@
         <v>9820</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5382,13 @@
         <v>453309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="H17" s="7">
         <v>413</v>
@@ -5394,10 +5400,10 @@
         <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>888</v>
@@ -5406,13 +5412,13 @@
         <v>763288</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5486,13 @@
         <v>19975</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>54</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5495,13 +5501,13 @@
         <v>10238</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -5510,13 +5516,13 @@
         <v>30214</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,16 +5534,16 @@
         <v>1563</v>
       </c>
       <c r="D20" s="7">
-        <v>1597733</v>
+        <v>1597732</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>62</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>1193</v>
@@ -5546,28 +5552,28 @@
         <v>986608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>2756</v>
       </c>
       <c r="N20" s="7">
-        <v>2584340</v>
+        <v>2584339</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,7 +5585,7 @@
         <v>1587</v>
       </c>
       <c r="D21" s="7">
-        <v>1617708</v>
+        <v>1617707</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -5609,7 +5615,7 @@
         <v>2792</v>
       </c>
       <c r="N21" s="7">
-        <v>2614554</v>
+        <v>2614553</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>

--- a/data/trans_orig/P32C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB3492A-6516-4EF7-B80D-199C30D217AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB433E6C-F368-4D0B-90D1-EF8DB930D1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{613EC9C8-0993-445E-B76D-C68BE3456AD1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C66C7A3-0080-4258-9C17-4776D15E3DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="310">
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,64%</t>
+    <t>6,77%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>0,94%</t>
   </si>
   <si>
-    <t>4,77%</t>
+    <t>4,69%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,36%</t>
+    <t>93,23%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,10 +116,10 @@
     <t>99,06%</t>
   </si>
   <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -134,7 +134,7 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,07%</t>
+    <t>1,41%</t>
   </si>
   <si>
     <t>99,51%</t>
@@ -149,804 +149,798 @@
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2015 (Tasa respuesta: 44,97%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
     <t>98,15%</t>
   </si>
   <si>
@@ -959,34 +953,22 @@
     <t>1,83%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
     <t>98,17%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
     <t>97,88%</t>
   </si>
   <si>
     <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE06B9C-8B9A-4B78-BB43-6054B1F05071}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB361E9B-3248-4519-981C-D37E38A8BF62}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2300,10 +2282,10 @@
         <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -2312,13 +2294,13 @@
         <v>8180</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -2327,13 +2309,13 @@
         <v>43443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2330,13 @@
         <v>1844656</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>867</v>
@@ -2363,13 +2345,13 @@
         <v>886404</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>2677</v>
@@ -2378,13 +2360,13 @@
         <v>2731060</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,7 +2422,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2461,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02958950-113D-4513-ACE7-0D6AD32F946D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE2C76C-815B-4DC2-A1EA-E02FB3A3B8E0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2478,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2585,13 +2567,13 @@
         <v>3842</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2600,13 +2582,13 @@
         <v>1012</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2615,13 +2597,13 @@
         <v>4854</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2618,13 @@
         <v>60561</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -2651,10 +2633,10 @@
         <v>26643</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2666,13 +2648,13 @@
         <v>87203</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2722,13 @@
         <v>2043</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2761,7 +2743,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2770,13 +2752,13 @@
         <v>2043</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,10 +2773,10 @@
         <v>358634</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2809,7 +2791,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -2821,7 +2803,7 @@
         <v>502945</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>129</v>
@@ -2931,7 +2913,7 @@
         <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2928,13 @@
         <v>583015</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H11" s="7">
         <v>268</v>
@@ -2964,7 +2946,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -2976,13 +2958,13 @@
         <v>876467</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3032,13 @@
         <v>10325</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3071,7 +3053,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3080,13 +3062,13 @@
         <v>10325</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3083,13 @@
         <v>448366</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -3119,7 +3101,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -3131,13 +3113,13 @@
         <v>653313</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3187,13 @@
         <v>16489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3220,13 +3202,13 @@
         <v>2026</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3235,13 +3217,13 @@
         <v>18515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3238,13 @@
         <v>540739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7">
         <v>346</v>
@@ -3271,10 +3253,10 @@
         <v>368158</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -3286,13 +3268,13 @@
         <v>908898</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3342,13 @@
         <v>40920</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3375,13 +3357,13 @@
         <v>3038</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3390,13 +3372,13 @@
         <v>43958</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3393,13 @@
         <v>1991315</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="H20" s="7">
         <v>953</v>
@@ -3426,13 +3408,13 @@
         <v>1037511</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>2824</v>
@@ -3441,13 +3423,13 @@
         <v>3028826</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3485,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +3506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9C2E81-9251-4575-9062-B8CF219DECA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3079DF-42B5-4597-BA43-F35DF6B071E6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3541,7 +3523,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3648,13 +3630,13 @@
         <v>933</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3669,7 +3651,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3678,13 +3660,13 @@
         <v>933</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,10 +3681,10 @@
         <v>84283</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3717,7 +3699,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3729,10 +3711,10 @@
         <v>119644</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3803,13 +3785,13 @@
         <v>7024</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3824,7 +3806,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3833,13 +3815,13 @@
         <v>7024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,13 +3836,13 @@
         <v>330473</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="H8" s="7">
         <v>153</v>
@@ -3872,7 +3854,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -3884,13 +3866,13 @@
         <v>479033</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3940,13 @@
         <v>8775</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3979,7 +3961,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3988,13 +3970,13 @@
         <v>9879</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +3991,13 @@
         <v>557363</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H11" s="7">
         <v>300</v>
@@ -4027,7 +4009,7 @@
         <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4039,13 +4021,13 @@
         <v>870884</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4095,13 @@
         <v>8283</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4134,7 +4116,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -4146,10 +4128,10 @@
         <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4146,13 @@
         <v>418404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
         <v>216</v>
@@ -4182,7 +4164,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -4191,16 +4173,16 @@
         <v>595</v>
       </c>
       <c r="N14" s="7">
-        <v>647051</v>
+        <v>647052</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,7 +4224,7 @@
         <v>603</v>
       </c>
       <c r="N15" s="7">
-        <v>655334</v>
+        <v>655335</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -4268,13 +4250,13 @@
         <v>6949</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4283,13 +4265,13 @@
         <v>5106</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4298,13 +4280,13 @@
         <v>12055</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,13 +4301,13 @@
         <v>558749</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -4334,13 +4316,13 @@
         <v>397914</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>920</v>
@@ -4349,13 +4331,13 @@
         <v>956663</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4405,13 @@
         <v>31963</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4438,13 +4420,13 @@
         <v>6210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -4453,13 +4435,13 @@
         <v>38173</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4456,13 @@
         <v>1949273</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="H20" s="7">
         <v>1075</v>
@@ -4489,13 +4471,13 @@
         <v>1124004</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>2918</v>
@@ -4504,13 +4486,13 @@
         <v>3073277</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,7 +4548,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4587,7 +4569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000D81D8-2D11-4B7C-AA0D-DEDE06A83C78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32357B51-B076-42CC-AFBF-2DC399C46974}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4604,7 +4586,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4711,13 +4693,13 @@
         <v>734</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4732,7 +4714,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4741,13 +4723,13 @@
         <v>734</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,10 +4744,10 @@
         <v>46006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4780,7 +4762,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4792,10 +4774,10 @@
         <v>73270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4866,13 +4848,13 @@
         <v>1818</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4881,13 +4863,13 @@
         <v>1410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4896,13 +4878,13 @@
         <v>3228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,10 +4899,10 @@
         <v>287113</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>265</v>
@@ -4947,10 +4929,10 @@
         <v>426731</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>269</v>
@@ -5039,7 +5021,7 @@
         <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>274</v>
@@ -5054,10 +5036,10 @@
         <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,7 +5075,7 @@
         <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>719</v>
@@ -5105,10 +5087,10 @@
         <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,13 +5158,13 @@
         <v>2305</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5191,13 +5173,13 @@
         <v>2701</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -5206,13 +5188,13 @@
         <v>5006</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,10 +5209,10 @@
         <v>331931</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -5242,10 +5224,10 @@
         <v>294075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -5257,13 +5239,13 @@
         <v>626006</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5313,13 @@
         <v>7343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>39</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5346,13 +5328,13 @@
         <v>2476</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5361,13 +5343,13 @@
         <v>9820</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5364,13 @@
         <v>453309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>413</v>
@@ -5397,13 +5379,13 @@
         <v>309980</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>888</v>
@@ -5412,13 +5394,13 @@
         <v>763288</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5468,13 @@
         <v>19975</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5501,13 +5483,13 @@
         <v>10238</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>179</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -5516,10 +5498,10 @@
         <v>30214</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>270</v>
@@ -5537,13 +5519,13 @@
         <v>1597732</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
         <v>1193</v>
@@ -5552,13 +5534,13 @@
         <v>986608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>2756</v>
@@ -5567,13 +5549,13 @@
         <v>2584339</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,7 +5611,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB433E6C-F368-4D0B-90D1-EF8DB930D1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3A49D6-1D3F-4A8B-BE86-3F520AE7E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C66C7A3-0080-4258-9C17-4776D15E3DAC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2BF5763F-A68B-4017-A7DD-240E7DA87EE2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="314">
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,32%</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,77%</t>
+    <t>6,64%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>0,94%</t>
   </si>
   <si>
-    <t>4,69%</t>
+    <t>4,77%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,23%</t>
+    <t>93,36%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>99,06%</t>
   </si>
   <si>
-    <t>95,31%</t>
+    <t>95,23%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -134,7 +134,7 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,41%</t>
+    <t>1,07%</t>
   </si>
   <si>
     <t>99,51%</t>
@@ -149,7 +149,7 @@
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,59%</t>
+    <t>98,93%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -158,817 +158,829 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,65%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,38%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>98,35%</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB361E9B-3248-4519-981C-D37E38A8BF62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AE60F1-DA89-4A01-A623-AB041DC7BD69}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2282,10 +2294,10 @@
         <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -2294,13 +2306,13 @@
         <v>8180</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -2309,13 +2321,13 @@
         <v>43443</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2342,13 @@
         <v>1844656</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>867</v>
@@ -2345,13 +2357,13 @@
         <v>886404</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>2677</v>
@@ -2360,13 +2372,13 @@
         <v>2731060</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,7 +2434,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2443,7 +2455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE2C76C-815B-4DC2-A1EA-E02FB3A3B8E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0CFAA0-6925-4EFD-8CC5-930F3CB573E2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2460,7 +2472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2567,13 +2579,13 @@
         <v>3842</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2582,13 +2594,13 @@
         <v>1012</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2597,13 +2609,13 @@
         <v>4854</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2630,13 @@
         <v>60561</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -2633,10 +2645,10 @@
         <v>26643</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2648,13 +2660,13 @@
         <v>87203</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2734,13 @@
         <v>2043</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2743,7 +2755,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2752,13 +2764,13 @@
         <v>2043</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,10 +2785,10 @@
         <v>358634</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2791,7 +2803,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -2803,7 +2815,7 @@
         <v>502945</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>129</v>
@@ -2913,7 +2925,7 @@
         <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,13 +2940,13 @@
         <v>583015</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H11" s="7">
         <v>268</v>
@@ -2946,7 +2958,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -2958,13 +2970,13 @@
         <v>876467</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3044,13 @@
         <v>10325</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3053,7 +3065,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3062,13 +3074,13 @@
         <v>10325</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3095,13 @@
         <v>448366</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -3101,7 +3113,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -3113,13 +3125,13 @@
         <v>653313</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3199,13 @@
         <v>16489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3202,13 +3214,13 @@
         <v>2026</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3217,13 +3229,13 @@
         <v>18515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,13 +3250,13 @@
         <v>540739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="H17" s="7">
         <v>346</v>
@@ -3253,10 +3265,10 @@
         <v>368158</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -3268,13 +3280,13 @@
         <v>908898</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,13 +3354,13 @@
         <v>40920</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3357,13 +3369,13 @@
         <v>3038</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3372,13 +3384,13 @@
         <v>43958</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3405,13 @@
         <v>1991315</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H20" s="7">
         <v>953</v>
@@ -3408,13 +3420,13 @@
         <v>1037511</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>2824</v>
@@ -3423,10 +3435,10 @@
         <v>3028826</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>187</v>
@@ -3485,7 +3497,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3506,7 +3518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3079DF-42B5-4597-BA43-F35DF6B071E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B9F9F2-86EB-4A76-A282-9FBED584BD82}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3788,7 +3800,7 @@
         <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>200</v>
@@ -3806,7 +3818,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3815,13 +3827,13 @@
         <v>7024</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3848,13 @@
         <v>330473</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>153</v>
@@ -3854,7 +3866,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -3866,13 +3878,13 @@
         <v>479033</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3952,13 @@
         <v>8775</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3961,7 +3973,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3970,13 +3982,13 @@
         <v>9879</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +4003,13 @@
         <v>557363</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>300</v>
@@ -4009,7 +4021,7 @@
         <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4021,13 +4033,13 @@
         <v>870884</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4107,13 @@
         <v>8283</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4116,7 +4128,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -4128,10 +4140,10 @@
         <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4158,13 @@
         <v>418404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>216</v>
@@ -4164,7 +4176,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -4173,16 +4185,16 @@
         <v>595</v>
       </c>
       <c r="N14" s="7">
-        <v>647052</v>
+        <v>647051</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,7 +4236,7 @@
         <v>603</v>
       </c>
       <c r="N15" s="7">
-        <v>655335</v>
+        <v>655334</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -4250,13 +4262,13 @@
         <v>6949</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4265,13 +4277,13 @@
         <v>5106</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4280,13 +4292,13 @@
         <v>12055</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4313,13 @@
         <v>558749</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -4316,10 +4328,10 @@
         <v>397914</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>32</v>
@@ -4331,13 +4343,13 @@
         <v>956663</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4417,13 @@
         <v>31963</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4420,7 +4432,7 @@
         <v>6210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>243</v>
@@ -4435,7 +4447,7 @@
         <v>38173</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>244</v>
@@ -4456,13 +4468,13 @@
         <v>1949273</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>1075</v>
@@ -4471,13 +4483,13 @@
         <v>1124004</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>2918</v>
@@ -4486,13 +4498,13 @@
         <v>3073277</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,7 +4560,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4569,7 +4581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32357B51-B076-42CC-AFBF-2DC399C46974}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D155A6EA-F426-434D-A506-8CF548A58AEE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4586,7 +4598,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4693,13 +4705,13 @@
         <v>734</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4714,7 +4726,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4723,13 +4735,13 @@
         <v>734</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,10 +4756,10 @@
         <v>46006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4762,7 +4774,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4774,10 +4786,10 @@
         <v>73270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4848,13 +4860,13 @@
         <v>1818</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4863,13 +4875,13 @@
         <v>1410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4878,13 +4890,13 @@
         <v>3228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4911,13 @@
         <v>287113</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H8" s="7">
         <v>205</v>
@@ -4914,10 +4926,10 @@
         <v>139618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4929,13 +4941,13 @@
         <v>426731</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +5015,13 @@
         <v>7776</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5018,13 +5030,13 @@
         <v>3651</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5033,13 +5045,13 @@
         <v>11427</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5066,13 @@
         <v>479373</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>285</v>
@@ -5069,13 +5081,13 @@
         <v>215670</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M11" s="7">
         <v>719</v>
@@ -5084,13 +5096,13 @@
         <v>695043</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5170,13 @@
         <v>2305</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5173,13 +5185,13 @@
         <v>2701</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -5188,13 +5200,13 @@
         <v>5006</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,10 +5221,10 @@
         <v>331931</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -5224,10 +5236,10 @@
         <v>294075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -5239,13 +5251,13 @@
         <v>626006</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5325,13 @@
         <v>7343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>133</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5328,13 +5340,13 @@
         <v>2476</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5343,13 +5355,13 @@
         <v>9820</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5376,13 @@
         <v>453309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>139</v>
       </c>
       <c r="H17" s="7">
         <v>413</v>
@@ -5379,13 +5391,13 @@
         <v>309980</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>888</v>
@@ -5394,13 +5406,13 @@
         <v>763288</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5480,13 @@
         <v>19975</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>54</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5483,7 +5495,7 @@
         <v>10238</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>179</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>304</v>
@@ -5498,13 +5510,13 @@
         <v>30214</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,16 +5528,16 @@
         <v>1563</v>
       </c>
       <c r="D20" s="7">
-        <v>1597732</v>
+        <v>1597733</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>306</v>
+        <v>62</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>1193</v>
@@ -5534,28 +5546,28 @@
         <v>986608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>187</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>2756</v>
       </c>
       <c r="N20" s="7">
-        <v>2584339</v>
+        <v>2584340</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,7 +5579,7 @@
         <v>1587</v>
       </c>
       <c r="D21" s="7">
-        <v>1617707</v>
+        <v>1617708</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -5597,7 +5609,7 @@
         <v>2792</v>
       </c>
       <c r="N21" s="7">
-        <v>2614553</v>
+        <v>2614554</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -5611,7 +5623,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3A49D6-1D3F-4A8B-BE86-3F520AE7E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{094244CF-C6CD-477E-8E0B-42376A8F25DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2BF5763F-A68B-4017-A7DD-240E7DA87EE2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{595CA11C-4654-4EC6-A48B-C66DAE6429DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="283">
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -68,919 +68,826 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>1,32%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,22%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
   </si>
 </sst>
 </file>
@@ -1392,8 +1299,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AE60F1-DA89-4A01-A623-AB041DC7BD69}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01147E9F-AF7B-4964-AFE0-D002162C3609}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1510,10 +1417,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>954</v>
+        <v>2769</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1531,79 +1438,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>954</v>
+        <v>2769</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>65</v>
+        <v>426</v>
       </c>
       <c r="D5" s="7">
-        <v>71127</v>
+        <v>436550</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="I5" s="7">
-        <v>29283</v>
+        <v>180606</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>97</v>
+        <v>609</v>
       </c>
       <c r="N5" s="7">
-        <v>100411</v>
+        <v>617156</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,72 +1519,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>66</v>
+        <v>429</v>
       </c>
       <c r="D6" s="7">
-        <v>72081</v>
+        <v>439319</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="I6" s="7">
-        <v>29283</v>
+        <v>180606</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>98</v>
+        <v>612</v>
       </c>
       <c r="N6" s="7">
-        <v>101365</v>
+        <v>619925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>1815</v>
+        <v>8772</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1686,79 +1593,79 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>1815</v>
+        <v>8772</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>361</v>
+        <v>535</v>
       </c>
       <c r="D8" s="7">
-        <v>365423</v>
+        <v>573127</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="I8" s="7">
-        <v>151323</v>
+        <v>279511</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>512</v>
+        <v>798</v>
       </c>
       <c r="N8" s="7">
-        <v>516745</v>
+        <v>852637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,72 +1674,72 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>543</v>
       </c>
       <c r="D9" s="7">
-        <v>367238</v>
+        <v>581899</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="I9" s="7">
-        <v>151323</v>
+        <v>279511</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>514</v>
+        <v>806</v>
       </c>
       <c r="N9" s="7">
-        <v>518560</v>
+        <v>861409</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>8772</v>
+        <v>11168</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1841,79 +1748,79 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>8772</v>
+        <v>11168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>535</v>
+        <v>306</v>
       </c>
       <c r="D11" s="7">
-        <v>573127</v>
+        <v>318884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
-        <v>263</v>
+        <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>279511</v>
+        <v>129413</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>798</v>
+        <v>440</v>
       </c>
       <c r="N11" s="7">
-        <v>852637</v>
+        <v>448296</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,153 +1829,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>543</v>
+        <v>317</v>
       </c>
       <c r="D12" s="7">
-        <v>581899</v>
+        <v>330052</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>263</v>
+        <v>134</v>
       </c>
       <c r="I12" s="7">
-        <v>279511</v>
+        <v>129413</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>806</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>861409</v>
+        <v>459464</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>11168</v>
+        <v>12553</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>8180</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N13" s="7">
-        <v>11168</v>
+        <v>20733</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>306</v>
+        <v>543</v>
       </c>
       <c r="D14" s="7">
-        <v>318884</v>
+        <v>516096</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="I14" s="7">
-        <v>129413</v>
+        <v>296875</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
-        <v>440</v>
+        <v>830</v>
       </c>
       <c r="N14" s="7">
-        <v>448296</v>
+        <v>812971</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,72 +1984,72 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>317</v>
+        <v>556</v>
       </c>
       <c r="D15" s="7">
-        <v>330052</v>
+        <v>528649</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="I15" s="7">
-        <v>129413</v>
+        <v>305055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>451</v>
+        <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>459464</v>
+        <v>833704</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7">
-        <v>12553</v>
+        <v>35262</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2151,79 +2058,79 @@
         <v>8180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N16" s="7">
-        <v>20733</v>
+        <v>43443</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>543</v>
+        <v>1810</v>
       </c>
       <c r="D17" s="7">
-        <v>516096</v>
+        <v>1844656</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
-        <v>287</v>
+        <v>867</v>
       </c>
       <c r="I17" s="7">
-        <v>296875</v>
+        <v>886404</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
-        <v>830</v>
+        <v>2677</v>
       </c>
       <c r="N17" s="7">
-        <v>812971</v>
+        <v>2731060</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,217 +2139,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>556</v>
+        <v>1845</v>
       </c>
       <c r="D18" s="7">
-        <v>528649</v>
+        <v>1879918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>294</v>
+        <v>874</v>
       </c>
       <c r="I18" s="7">
-        <v>305055</v>
+        <v>894584</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>850</v>
+        <v>2719</v>
       </c>
       <c r="N18" s="7">
-        <v>833704</v>
+        <v>2774503</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>35</v>
-      </c>
-      <c r="D19" s="7">
-        <v>35262</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="7">
-        <v>7</v>
-      </c>
-      <c r="I19" s="7">
-        <v>8180</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M19" s="7">
-        <v>42</v>
-      </c>
-      <c r="N19" s="7">
-        <v>43443</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1810</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1844656</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="A19" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="7">
-        <v>867</v>
-      </c>
-      <c r="I20" s="7">
-        <v>886404</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2677</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2731060</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1845</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1879918</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>874</v>
-      </c>
-      <c r="I21" s="7">
-        <v>894584</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2719</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2774503</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2455,8 +2206,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0CFAA0-6925-4EFD-8CC5-930F3CB573E2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C53C63B-E61B-4849-BE18-60045E78FBB4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2472,7 +2223,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2573,19 +2324,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>3842</v>
+        <v>5885</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2594,79 +2345,79 @@
         <v>1012</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>4854</v>
+        <v>6897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="D5" s="7">
-        <v>60561</v>
+        <v>419195</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="7">
+        <v>159</v>
+      </c>
+      <c r="I5" s="7">
+        <v>170953</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="7">
+        <v>559</v>
+      </c>
+      <c r="N5" s="7">
+        <v>590148</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="7">
-        <v>23</v>
-      </c>
-      <c r="I5" s="7">
-        <v>26643</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="7">
-        <v>88</v>
-      </c>
-      <c r="N5" s="7">
-        <v>87203</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,72 +2426,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>70</v>
+        <v>407</v>
       </c>
       <c r="D6" s="7">
-        <v>64403</v>
+        <v>425080</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="I6" s="7">
-        <v>27655</v>
+        <v>171965</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>94</v>
+        <v>567</v>
       </c>
       <c r="N6" s="7">
-        <v>92057</v>
+        <v>597045</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>2043</v>
+        <v>8221</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2749,79 +2500,79 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>2043</v>
+        <v>8221</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>335</v>
+        <v>538</v>
       </c>
       <c r="D8" s="7">
-        <v>358634</v>
+        <v>583015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="H8" s="7">
-        <v>136</v>
+        <v>268</v>
       </c>
       <c r="I8" s="7">
-        <v>144311</v>
+        <v>293452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>471</v>
+        <v>806</v>
       </c>
       <c r="N8" s="7">
-        <v>502945</v>
+        <v>876467</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,72 +2581,72 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>337</v>
+        <v>546</v>
       </c>
       <c r="D9" s="7">
-        <v>360677</v>
+        <v>591236</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>268</v>
       </c>
       <c r="I9" s="7">
-        <v>144311</v>
+        <v>293452</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>473</v>
+        <v>814</v>
       </c>
       <c r="N9" s="7">
-        <v>504988</v>
+        <v>884688</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>8221</v>
+        <v>10325</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2904,79 +2655,79 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>8221</v>
+        <v>10325</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>538</v>
+        <v>409</v>
       </c>
       <c r="D11" s="7">
-        <v>583015</v>
+        <v>448366</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="7">
+        <v>180</v>
+      </c>
+      <c r="I11" s="7">
+        <v>204948</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="7">
+        <v>589</v>
+      </c>
+      <c r="N11" s="7">
+        <v>653313</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="7">
-        <v>268</v>
-      </c>
-      <c r="I11" s="7">
-        <v>293452</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="7">
-        <v>806</v>
-      </c>
-      <c r="N11" s="7">
-        <v>876467</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,153 +2736,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>546</v>
+        <v>419</v>
       </c>
       <c r="D12" s="7">
-        <v>591236</v>
+        <v>458691</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="I12" s="7">
-        <v>293452</v>
+        <v>204948</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>814</v>
+        <v>599</v>
       </c>
       <c r="N12" s="7">
-        <v>884688</v>
+        <v>663638</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>10325</v>
+        <v>16489</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>2026</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>10325</v>
+        <v>18515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>409</v>
+        <v>524</v>
       </c>
       <c r="D14" s="7">
-        <v>448366</v>
+        <v>540739</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="7">
+        <v>346</v>
+      </c>
+      <c r="I14" s="7">
+        <v>368158</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="7">
+        <v>870</v>
+      </c>
+      <c r="N14" s="7">
+        <v>908898</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="7">
-        <v>180</v>
-      </c>
-      <c r="I14" s="7">
-        <v>204948</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="7">
-        <v>589</v>
-      </c>
-      <c r="N14" s="7">
-        <v>653313</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,153 +2891,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>419</v>
+        <v>539</v>
       </c>
       <c r="D15" s="7">
-        <v>458691</v>
+        <v>557228</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>180</v>
+        <v>348</v>
       </c>
       <c r="I15" s="7">
-        <v>204948</v>
+        <v>370184</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>599</v>
+        <v>887</v>
       </c>
       <c r="N15" s="7">
-        <v>663638</v>
+        <v>927413</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7">
-        <v>16489</v>
+        <v>40920</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3038</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2026</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>43</v>
+      </c>
+      <c r="N16" s="7">
+        <v>43958</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="M16" s="7">
-        <v>17</v>
-      </c>
-      <c r="N16" s="7">
-        <v>18515</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>524</v>
+        <v>1871</v>
       </c>
       <c r="D17" s="7">
-        <v>540739</v>
+        <v>1991315</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="7">
+        <v>953</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1037511</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H17" s="7">
-        <v>346</v>
-      </c>
-      <c r="I17" s="7">
-        <v>368158</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2824</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3028827</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="7">
-        <v>870</v>
-      </c>
-      <c r="N17" s="7">
-        <v>908898</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,217 +3046,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>539</v>
+        <v>1911</v>
       </c>
       <c r="D18" s="7">
-        <v>557228</v>
+        <v>2032235</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>348</v>
+        <v>956</v>
       </c>
       <c r="I18" s="7">
-        <v>370184</v>
+        <v>1040549</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>887</v>
+        <v>2867</v>
       </c>
       <c r="N18" s="7">
-        <v>927413</v>
+        <v>3072785</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>40</v>
-      </c>
-      <c r="D19" s="7">
-        <v>40920</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3038</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M19" s="7">
-        <v>43</v>
-      </c>
-      <c r="N19" s="7">
-        <v>43958</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1871</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1991315</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" s="7">
-        <v>953</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1037511</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2824</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3028826</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1911</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2032235</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>956</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1040549</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2867</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3072784</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3518,8 +3113,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B9F9F2-86EB-4A76-A282-9FBED584BD82}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE67D08-C5B1-4161-B9CF-1306D78E7F77}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3535,7 +3130,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3636,19 +3231,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>933</v>
+        <v>7957</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3657,79 +3252,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>933</v>
+        <v>7957</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="D5" s="7">
-        <v>84283</v>
+        <v>414756</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="I5" s="7">
-        <v>35362</v>
+        <v>183921</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>119</v>
+        <v>588</v>
       </c>
       <c r="N5" s="7">
-        <v>119644</v>
+        <v>598677</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,153 +3333,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="D6" s="7">
-        <v>85216</v>
+        <v>422713</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="I6" s="7">
-        <v>35362</v>
+        <v>183921</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>120</v>
+        <v>595</v>
       </c>
       <c r="N6" s="7">
-        <v>120577</v>
+        <v>606634</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>7024</v>
+        <v>8775</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>7024</v>
+        <v>9879</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>316</v>
+        <v>515</v>
       </c>
       <c r="D8" s="7">
-        <v>330473</v>
+        <v>557363</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="I8" s="7">
-        <v>148559</v>
+        <v>313522</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>469</v>
+        <v>815</v>
       </c>
       <c r="N8" s="7">
-        <v>479033</v>
+        <v>870884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,54 +3488,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>322</v>
+        <v>523</v>
       </c>
       <c r="D9" s="7">
-        <v>337497</v>
+        <v>566138</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>153</v>
+        <v>301</v>
       </c>
       <c r="I9" s="7">
-        <v>148559</v>
+        <v>314626</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>475</v>
+        <v>824</v>
       </c>
       <c r="N9" s="7">
-        <v>486057</v>
+        <v>880763</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3949,97 +3544,97 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>8775</v>
+        <v>8283</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1104</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>9879</v>
+        <v>8283</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>515</v>
+        <v>379</v>
       </c>
       <c r="D11" s="7">
-        <v>557363</v>
+        <v>418404</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="H11" s="7">
-        <v>300</v>
+        <v>216</v>
       </c>
       <c r="I11" s="7">
-        <v>313522</v>
+        <v>228647</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>815</v>
+        <v>595</v>
       </c>
       <c r="N11" s="7">
-        <v>870884</v>
+        <v>647052</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,153 +3643,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>523</v>
+        <v>387</v>
       </c>
       <c r="D12" s="7">
-        <v>566138</v>
+        <v>426687</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="I12" s="7">
-        <v>314626</v>
+        <v>228647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>824</v>
+        <v>603</v>
       </c>
       <c r="N12" s="7">
-        <v>880763</v>
+        <v>655335</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>8283</v>
+        <v>6949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>5106</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M13" s="7">
         <v>12</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M13" s="7">
-        <v>8</v>
-      </c>
       <c r="N13" s="7">
-        <v>8283</v>
+        <v>12055</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>379</v>
+        <v>552</v>
       </c>
       <c r="D14" s="7">
-        <v>418404</v>
+        <v>558749</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
+        <v>368</v>
+      </c>
+      <c r="I14" s="7">
+        <v>397914</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M14" s="7">
+        <v>920</v>
+      </c>
+      <c r="N14" s="7">
+        <v>956663</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="I14" s="7">
-        <v>228647</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="7">
-        <v>595</v>
-      </c>
-      <c r="N14" s="7">
-        <v>647051</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,153 +3798,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>387</v>
+        <v>559</v>
       </c>
       <c r="D15" s="7">
-        <v>426687</v>
+        <v>565698</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>216</v>
+        <v>373</v>
       </c>
       <c r="I15" s="7">
-        <v>228647</v>
+        <v>403020</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>603</v>
+        <v>932</v>
       </c>
       <c r="N15" s="7">
-        <v>655334</v>
+        <v>968718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>6949</v>
+        <v>31963</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>5106</v>
+        <v>6210</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N16" s="7">
-        <v>12055</v>
+        <v>38173</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>552</v>
+        <v>1843</v>
       </c>
       <c r="D17" s="7">
-        <v>558749</v>
+        <v>1949273</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>368</v>
+        <v>1075</v>
       </c>
       <c r="I17" s="7">
-        <v>397914</v>
+        <v>1124004</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
-        <v>920</v>
+        <v>2918</v>
       </c>
       <c r="N17" s="7">
-        <v>956663</v>
+        <v>3073277</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,217 +3953,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>559</v>
+        <v>1873</v>
       </c>
       <c r="D18" s="7">
-        <v>565698</v>
+        <v>1981236</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>373</v>
+        <v>1081</v>
       </c>
       <c r="I18" s="7">
-        <v>403020</v>
+        <v>1130214</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>932</v>
+        <v>2954</v>
       </c>
       <c r="N18" s="7">
-        <v>968718</v>
+        <v>3111450</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7">
-        <v>31963</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6210</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M19" s="7">
-        <v>36</v>
-      </c>
-      <c r="N19" s="7">
-        <v>38173</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1843</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1949273</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1075</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1124004</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2918</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3073277</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1873</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1981236</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1081</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1130214</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2954</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3111450</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4581,8 +4020,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D155A6EA-F426-434D-A506-8CF548A58AEE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C860A823-1438-4E77-8D3D-79DC72F3A16B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4598,7 +4037,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4699,100 +4138,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>734</v>
+        <v>2381</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1307</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>734</v>
+        <v>3688</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>54</v>
+        <v>353</v>
       </c>
       <c r="D5" s="7">
-        <v>46006</v>
+        <v>331186</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="I5" s="7">
-        <v>27264</v>
+        <v>158790</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>97</v>
+        <v>601</v>
       </c>
       <c r="N5" s="7">
-        <v>73270</v>
+        <v>489977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,153 +4240,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>55</v>
+        <v>357</v>
       </c>
       <c r="D6" s="7">
-        <v>46740</v>
+        <v>333567</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="I6" s="7">
-        <v>27264</v>
+        <v>160097</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>98</v>
+        <v>607</v>
       </c>
       <c r="N6" s="7">
-        <v>74004</v>
+        <v>493665</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>1818</v>
+        <v>7288</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>1410</v>
+        <v>3409</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>3228</v>
+        <v>10697</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>266</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>299</v>
+        <v>434</v>
       </c>
       <c r="D8" s="7">
-        <v>287113</v>
+        <v>469468</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="I8" s="7">
-        <v>139618</v>
+        <v>198197</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
-        <v>504</v>
+        <v>719</v>
       </c>
       <c r="N8" s="7">
-        <v>426731</v>
+        <v>667665</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,153 +4395,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>302</v>
+        <v>443</v>
       </c>
       <c r="D9" s="7">
-        <v>288931</v>
+        <v>476756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>207</v>
+        <v>289</v>
       </c>
       <c r="I9" s="7">
-        <v>141028</v>
+        <v>201606</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>509</v>
+        <v>732</v>
       </c>
       <c r="N9" s="7">
-        <v>429959</v>
+        <v>678362</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>7776</v>
+        <v>2250</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>3651</v>
+        <v>2228</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>100</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>11427</v>
+        <v>4477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>434</v>
+        <v>301</v>
       </c>
       <c r="D11" s="7">
-        <v>479373</v>
+        <v>323098</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="I11" s="7">
-        <v>215670</v>
+        <v>373869</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>719</v>
+        <v>548</v>
       </c>
       <c r="N11" s="7">
-        <v>695043</v>
+        <v>696968</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,153 +4550,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>443</v>
+        <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>487149</v>
+        <v>325348</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>219321</v>
+        <v>376097</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>732</v>
+        <v>551</v>
       </c>
       <c r="N12" s="7">
-        <v>706470</v>
+        <v>701445</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>2305</v>
+        <v>6898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>2701</v>
+        <v>2309</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>5006</v>
+        <v>9206</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>301</v>
+        <v>475</v>
       </c>
       <c r="D14" s="7">
-        <v>331931</v>
+        <v>436802</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>247</v>
+        <v>413</v>
       </c>
       <c r="I14" s="7">
-        <v>294075</v>
+        <v>287273</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
-        <v>548</v>
+        <v>888</v>
       </c>
       <c r="N14" s="7">
-        <v>626006</v>
+        <v>724075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,153 +4705,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D15" s="7">
-        <v>334236</v>
+        <v>443700</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>248</v>
+        <v>418</v>
       </c>
       <c r="I15" s="7">
-        <v>296776</v>
+        <v>289582</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>551</v>
+        <v>902</v>
       </c>
       <c r="N15" s="7">
-        <v>631012</v>
+        <v>733281</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>7343</v>
+        <v>18817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>2476</v>
+        <v>9252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N16" s="7">
-        <v>9820</v>
+        <v>28069</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>475</v>
+        <v>1563</v>
       </c>
       <c r="D17" s="7">
-        <v>453309</v>
+        <v>1560554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7">
-        <v>413</v>
+        <v>1193</v>
       </c>
       <c r="I17" s="7">
-        <v>309980</v>
+        <v>1018130</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
-        <v>888</v>
+        <v>2756</v>
       </c>
       <c r="N17" s="7">
-        <v>763288</v>
+        <v>2578684</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,217 +4860,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>484</v>
+        <v>1587</v>
       </c>
       <c r="D18" s="7">
-        <v>460652</v>
+        <v>1579371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>418</v>
+        <v>1205</v>
       </c>
       <c r="I18" s="7">
-        <v>312456</v>
+        <v>1027382</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>902</v>
+        <v>2792</v>
       </c>
       <c r="N18" s="7">
-        <v>773108</v>
+        <v>2606753</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>24</v>
-      </c>
-      <c r="D19" s="7">
-        <v>19975</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>10238</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="M19" s="7">
-        <v>36</v>
-      </c>
-      <c r="N19" s="7">
-        <v>30214</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1563</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1597733</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1193</v>
-      </c>
-      <c r="I20" s="7">
-        <v>986608</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2756</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2584340</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1587</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1617708</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1205</v>
-      </c>
-      <c r="I21" s="7">
-        <v>996846</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2792</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2614554</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
